--- a/rabbit.xlsx
+++ b/rabbit.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd413456dd6f4f57/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyama\Documents\Usagi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E19EFA-AA25-4BD1-A210-9A9A4610C567}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9323" activeTab="1" xr2:uid="{BFF5550A-2DE9-4D02-919A-3500B022FAF5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9320"/>
   </bookViews>
   <sheets>
     <sheet name="Thread" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -293,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -874,22 +873,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BE67E4-D03B-48EC-979B-29A378D338A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.9375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.8125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -929,7 +928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -951,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -973,7 +972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -993,7 +992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1025,28 +1024,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95D878-F7B6-49F1-B2D2-30CF7535FCEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.8125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1130,7 +1129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1152,7 +1151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1187,16 +1186,14 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1218,7 +1215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
@@ -1240,7 +1237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
@@ -1260,7 +1257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>

--- a/rabbit.xlsx
+++ b/rabbit.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyama\Documents\Usagi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webapps\usagi19\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392F09FF-CA59-4B4E-BF43-EF58123AFEA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thread" sheetId="1" r:id="rId1"/>
-    <sheet name="Response" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,268 +31,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>テーブル名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>thread_table</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>THREAD_TABLE</t>
   </si>
   <si>
     <t>列名</t>
-    <rPh sb="0" eb="1">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>データ型</t>
-    <rPh sb="3" eb="4">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>長さ</t>
-    <rPh sb="0" eb="1">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
   </si>
   <si>
     <t>pk</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ck</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nｎ</t>
   </si>
   <si>
     <t>uq</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>fk</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Thread_No</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Number</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>スレッドの通し番号（親キー。シーケンスで連番）</t>
   </si>
   <si>
     <t>Thread_Name</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>スレッドのタイトル</t>
   </si>
   <si>
     <t>Thread_Time</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの立てた日付（YYYY/MM/dd HH:mm:ss）</t>
   </si>
   <si>
     <t>Thread_Report</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スレッドの通し番号（親キー）</t>
-    <rPh sb="5" eb="6">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スレッドのタイトル</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>報告された数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スレッドの立てた日付（YYYY/MM/DD）</t>
-    <rPh sb="5" eb="6">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sysdate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nｎ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Response_table</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESPONSE_TABLE</t>
   </si>
   <si>
     <t>Response_No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Response_しNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User_Name</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスの全ての通し番号（シーケンスで連番）</t>
+  </si>
+  <si>
+    <t>Response_SerialNo</t>
+  </si>
+  <si>
+    <t>スレッドごとのレスポンスの通し番号(レス名&lt;=1000)</t>
+  </si>
+  <si>
+    <t>Response_UserName</t>
+  </si>
+  <si>
+    <t>レスをしたユーザーの名前</t>
+  </si>
+  <si>
+    <t>Response_Contents</t>
+  </si>
+  <si>
+    <t>レスの内容</t>
+  </si>
+  <si>
+    <t>Response_Time</t>
+  </si>
+  <si>
+    <t>レスをした日付（YYYY/MM/dd HH:mm:ss）</t>
+  </si>
+  <si>
+    <t>スレッドの通し番号(外部キー)</t>
+  </si>
+  <si>
+    <t>Response_Rating</t>
+  </si>
+  <si>
+    <t>レスに対しての評価</t>
+  </si>
+  <si>
+    <t>Response_ParentNo</t>
+  </si>
+  <si>
+    <t>レスに対して返信した時の結合キー</t>
   </si>
   <si>
     <t>Response_Report</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Response_Time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Response_Contents</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Response_ParentNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Response_Rating</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスに対しての評価</t>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスの内容</t>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スレッドの通し番号(外部キー)</t>
-    <rPh sb="5" eb="6">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定なし</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスに対して返信した時の結合キー</t>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンシン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスをしたユーザーの名前</t>
-    <rPh sb="10" eb="12">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スレッドごとのレスポンスの通し番号</t>
-    <rPh sb="13" eb="14">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスをした日付（YYYY/MM/DD）</t>
-    <rPh sb="5" eb="7">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レスの通し番号</t>
-    <rPh sb="3" eb="4">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -479,36 +343,68 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -517,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +447,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -558,6 +457,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -873,89 +778,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.9140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.9375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
         <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1000</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>200</v>
@@ -965,42 +880,44 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -1008,12 +925,254 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="8" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
         <v>20</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>300</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1021,268 +1180,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>300</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7">
-        <v>100</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/rabbit.xlsx
+++ b/rabbit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webapps\usagi19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392F09FF-CA59-4B4E-BF43-EF58123AFEA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE4A64-AD43-4915-9651-31A198E9BDE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9323" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thread" sheetId="1" r:id="rId1"/>
@@ -782,12 +782,12 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.0625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.9375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="47.1875" bestFit="1" customWidth="1"/>

--- a/rabbit.xlsx
+++ b/rabbit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dd413456dd6f4f57/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukae\Documents\新しいフォルダー\usagi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E19EFA-AA25-4BD1-A210-9A9A4610C567}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B52D538-FA4E-48B7-93BA-0C85748A23E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9323" activeTab="1" xr2:uid="{BFF5550A-2DE9-4D02-919A-3500B022FAF5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BFF5550A-2DE9-4D02-919A-3500B022FAF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Thread" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Response_しNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>User_Name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -233,13 +229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指定なし</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レスに対して返信した時の結合キー</t>
     <rPh sb="3" eb="4">
       <t>タイ</t>
@@ -287,6 +276,14 @@
     <rPh sb="5" eb="7">
       <t>バンゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Response_SerialNo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR２</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -311,15 +308,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -512,25 +515,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -546,12 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -560,6 +566,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,69 +902,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BE67E4-D03B-48EC-979B-29A378D338A8}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.9375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.8125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
@@ -947,12 +980,12 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -969,18 +1002,20 @@
         <v>17</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>19</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
@@ -989,31 +1024,273 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7">
-        <v>100</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>300</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+      <c r="A19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1026,15 +1303,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95D878-F7B6-49F1-B2D2-30CF7535FCEB}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="17.5625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.3125" bestFit="1" customWidth="1"/>
@@ -1045,246 +1322,7 @@
     <col min="9" max="9" width="2.5625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.8125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>300</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
-      <c r="A10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7">
-        <v>100</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rabbit.xlsx
+++ b/rabbit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yukae\Documents\新しいフォルダー\usagi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B52D538-FA4E-48B7-93BA-0C85748A23E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E4BB55-4431-4080-B6B2-4BB0B68DC2AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BFF5550A-2DE9-4D02-919A-3500B022FAF5}"/>
   </bookViews>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>thread_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>列名</t>
     <rPh sb="0" eb="1">
       <t>レツ</t>
@@ -116,10 +112,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -145,16 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スレッドの立てた日付（YYYY/MM/DD）</t>
-    <rPh sb="5" eb="6">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DEFAULT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -167,15 +149,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Response_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Response_No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User_Name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -262,13 +236,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レスをした日付（YYYY/MM/DD）</t>
-    <rPh sb="5" eb="7">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レスの通し番号</t>
     <rPh sb="3" eb="4">
       <t>トオ</t>
@@ -284,6 +251,45 @@
   </si>
   <si>
     <t>VARCHAR２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドを立てた日付と時間</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VERCHAR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスをした日付と時間</t>
+    <rPh sb="5" eb="7">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thread_Table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Response_Table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Response_UserName</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -905,12 +911,12 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.3125" bestFit="1" customWidth="1"/>
@@ -927,69 +933,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>200</v>
@@ -999,25 +1005,25 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1025,15 +1031,15 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -1044,12 +1050,12 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
@@ -1057,69 +1063,69 @@
         <v>0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="J11" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -1128,75 +1134,75 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1206,10 +1212,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="C17" s="8">
         <v>5</v>
@@ -1220,18 +1226,18 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="8">
         <v>5</v>
@@ -1242,20 +1248,20 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.7">
       <c r="A19" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8">
         <v>3</v>
@@ -1267,15 +1273,15 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5">
         <v>3</v>
@@ -1286,12 +1292,12 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
